--- a/src/test/data/Excelのフォーマットについて.xlsx
+++ b/src/test/data/Excelのフォーマットについて.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="書式の種類" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="解析処理" sheetId="3" r:id="rId4"/>
     <sheet name="漢数字変換" sheetId="5" r:id="rId5"/>
     <sheet name="分数について" sheetId="6" r:id="rId6"/>
+    <sheet name="ビルトインフォーマット" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
   <si>
     <t>https://exceljet.net/lessons/how-to-use-scientific-formatting-in-excel</t>
   </si>
@@ -554,6 +555,598 @@
     <rPh sb="20" eb="22">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルトインフォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予めExcelの初期として組み込まれたフォーマット。</t>
+    <rPh sb="0" eb="1">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックス番号でもち、フォーマットの定義を持たない。</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2000以前の古いバージョンで利用される。</t>
+    <rPh sb="9" eb="11">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2007以降は、全てユーザ定義となった。</t>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JExcelAPIの場合</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公開のクラス「jxl.biff.BuiltInFormat」の内部クラスで保持される。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックス番号</t>
+  </si>
+  <si>
+    <t>10進数</t>
+    <rPh sb="2" eb="4">
+      <t>シンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16進数</t>
+    <rPh sb="2" eb="4">
+      <t>シンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apache POI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0</t>
+  </si>
+  <si>
+    <t>#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00</t>
+  </si>
+  <si>
+    <t>($#,##0_);($#,##0)</t>
+  </si>
+  <si>
+    <t>($#,##0_);[Red]($#,##0)</t>
+  </si>
+  <si>
+    <t>($#,##0.00_);[Red]($#,##0.00)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>0.00E+00</t>
+  </si>
+  <si>
+    <t># ?/?</t>
+  </si>
+  <si>
+    <t># ??/??</t>
+  </si>
+  <si>
+    <t>dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>d-mmm-yy</t>
+  </si>
+  <si>
+    <t>d-mmm</t>
+  </si>
+  <si>
+    <t>mmm-yy</t>
+  </si>
+  <si>
+    <t>h:mm AM/PM</t>
+  </si>
+  <si>
+    <t>h:mm:ss AM/PM</t>
+  </si>
+  <si>
+    <t>h:mm</t>
+  </si>
+  <si>
+    <t>h:mm:ss</t>
+  </si>
+  <si>
+    <t>m/d/yy h:mm</t>
+  </si>
+  <si>
+    <t>(#,##0_);(#,##0)</t>
+  </si>
+  <si>
+    <t>(#,##0_);[Red](#,##0)</t>
+  </si>
+  <si>
+    <t>(#,##0.00_);(#,##0.00)</t>
+  </si>
+  <si>
+    <t>(#,##0.00_);[Red](#,##0.00)</t>
+  </si>
+  <si>
+    <t>_(*#,##0_);_(*(#,##0);_(*\"-\"_);(@_)</t>
+  </si>
+  <si>
+    <t>_($*#,##0_);_($*(#,##0);_($*\"-\"_);(@_)</t>
+  </si>
+  <si>
+    <t>_(* #,##0.00_);_(* (#,##0.00);_(* \"-\"??_);(@_)</t>
+  </si>
+  <si>
+    <t>_($* #,##0.00_);_($* (#,##0.00);_($* \"-\"??_);(@_)</t>
+  </si>
+  <si>
+    <t>mm:ss</t>
+  </si>
+  <si>
+    <t>[h]mm:ss</t>
+  </si>
+  <si>
+    <t>mm:ss.0</t>
+  </si>
+  <si>
+    <t>##0.0E+0</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Apache POIの場合</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス「org.apache.poi.ss.usermodel.BuiltinFormats」で管理されている。</t>
+    <rPh sb="48" eb="50">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://poi.apache.org/apidocs/org/apache/poi/ss/usermodel/BuiltinFormats.html</t>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JexcelAPIの場合間違っている。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JExcelAPI（最新ver 2.6.12）</t>
+    <rPh sb="10" eb="12">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[h]:mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$#,##0_);($#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$#,##0_);[Red]($#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$#,##0.00);($#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$#,##0.00_);[Red]($#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/d/yy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0_);(#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0_);[Red](#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00_);(#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00_);[Red](#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0;¥-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0;[Red]¥-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0.00;¥-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¥#,##0.00;[Red]¥-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0;-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0;[Red]-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00;-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00;[Red]-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POI、JexcelAPIの場合間違っている。ただし、POIは正しくとれる。</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(* #,##0_);_(* (#,##0);_(* \"-\"_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($* #,##0_);_($* (#,##0);_($* \"-\"_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($* #,##0.00_);_($* (#,##0.00);_($* \"-\"??_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_ * #,##0_ ;_ * \\-#,##0_ ;_ * \"-\"_ ;_ @_</t>
+  </si>
+  <si>
+    <t>_ * #,##0.00_ ;_ * (#,##0.00);_ * \"-\"??_ ;_ @_ "</t>
+  </si>
+  <si>
+    <t>AM/PMにおいて、[$-411]の日本語のロケールの場合は、午前、午後と表示する。</t>
+    <rPh sb="18" eb="21">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Libreのフォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://help.libreoffice.org/Common/Number_Format_Codes/ja</t>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四半期</t>
+    <rPh sb="0" eb="3">
+      <t>シハンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの場合は、水</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つの場合は、水曜日</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>スイヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_ \"¥\"* #,##0_ ;_ \"¥\"* \\-#,##0_ ;_ \"¥\"* \"-\"_ ;_ @_ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_ \"¥\"* #,##0.00_ ;_ \"¥\"* -#,##0.00_ ;_ \"¥\"* \"-\"??_ ;_ @_ "</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(* #,##0.00_);_(* (#,##0.00);_(* \"-\"??_);_(@_)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,7 +1173,7 @@
     <numFmt numFmtId="190" formatCode="[DBNum1][$-411]General"/>
     <numFmt numFmtId="191" formatCode="[DBNum2][$-411]General"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,16 +1196,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -715,12 +1335,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -752,6 +1409,29 @@
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1253,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,19 +1981,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1862,4 +2583,778 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="34.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="32">
+        <f>HEX2DEC(B20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" ref="C21:C55" si="0">HEX2DEC(B21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="32">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="32">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="32">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="32">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="32">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="32">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="32">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="32">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="32">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="32">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="32">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/data/Excelのフォーマットについて.xlsx
+++ b/src/test/data/Excelのフォーマットについて.xlsx
@@ -14,13 +14,14 @@
     <sheet name="漢数字変換" sheetId="5" r:id="rId5"/>
     <sheet name="分数について" sheetId="6" r:id="rId6"/>
     <sheet name="ビルトインフォーマット" sheetId="7" r:id="rId7"/>
+    <sheet name="日時" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="193">
   <si>
     <t>https://exceljet.net/lessons/how-to-use-scientific-formatting-in-excel</t>
   </si>
@@ -1147,6 +1148,89 @@
   </si>
   <si>
     <t>_(* #,##0.00_);_(* (#,##0.00);_(* \"-\"??_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの基準日</t>
+    <rPh sb="6" eb="9">
+      <t>キジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常は、1900年1月0日 00時00分00秒。</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※0日は、1月1日から48時間を引いた値。</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/ja-jp/kb/180162/ja</t>
+  </si>
+  <si>
+    <t>1904年から始まる場合がある。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、Excel95以前のものなので、Excel2000以降は問題ない。</t>
+    <rPh sb="11" eb="13">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1571,6 +1655,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132220</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2914650"/>
+          <a:ext cx="9047620" cy="6523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円/楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="6829425"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -1861,7 +2048,7 @@
   <dimension ref="A3:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2590,7 +2777,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3286,7 +3473,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="32" t="s">
@@ -3357,4 +3544,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/data/Excelのフォーマットについて.xlsx
+++ b/src/test/data/Excelのフォーマットについて.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="書式の種類" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="198">
   <si>
     <t>https://exceljet.net/lessons/how-to-use-scientific-formatting-in-excel</t>
   </si>
@@ -1230,6 +1230,52 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://homepage1.nifty.com/tabotabo/ooo/calc/ooo06.htm</t>
+  </si>
+  <si>
+    <t>オープンオフィスの場合</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Libreの場合</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のオフィススイート</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週番号「ww」と、週名「nn」、四半期「q」「qq」が特別</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シハンキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2776,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+    <sheetView topLeftCell="C37" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -3548,40 +3594,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>192</v>
       </c>
